--- a/biology/Botanique/Astrocaryum/Astrocaryum.xlsx
+++ b/biology/Botanique/Astrocaryum/Astrocaryum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrocaryum est un genre de la famille des Arecaceae (Palmiers) comprenant des espèces natives de l'Amérique centrale et de l'Amérique du Sud. 
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
@@ -546,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (29 décembre 2013) :
 Astrocaryum acaule Mart. (1824)
 Astrocaryum aculeatissimum (Schott) Burret (1934)
 Astrocaryum aculeatum G.Mey. (1818)
@@ -586,7 +602,7 @@
 Astrocaryum ulei Burret (1934)
 Astrocaryum urostachys Burret (1934)
 Astrocaryum vulgare Mart. (1824)
-Selon NCBI  (29 décembre 2013)[3] :
+Selon NCBI  (29 décembre 2013) :
 Astrocaryum acaule
 Astrocaryum aculeatum
 Astrocaryum campestre
@@ -616,7 +632,7 @@
 Astrocaryum ulei
 Astrocaryum urostachys
 Astrocaryum vulgare
-Selon The Plant List            (29 décembre 2013)[4] :
+Selon The Plant List            (29 décembre 2013) :
 Astrocaryum acaule Mart.
 Astrocaryum aculeatissimum (Schott) Burret
 Astrocaryum aculeatum G.Mey.
@@ -653,7 +669,7 @@
 Astrocaryum ulei Burret
 Astrocaryum urostachys Burret
 Astrocaryum vulgare Mart.
-Selon Tropicos                                           (29 décembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Astrocaryum acanthopodium Barb. Rodr.
 Astrocaryum acaule Mart.
 Astrocaryum aculeatissimum (Schott) Burret
